--- a/doc/evolution/evolution.xlsx
+++ b/doc/evolution/evolution.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21180" windowHeight="10110" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20610" windowHeight="10110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="splicing" sheetId="2" r:id="rId1"/>
     <sheet name="polyA" sheetId="4" r:id="rId2"/>
     <sheet name="translation" sheetId="5" r:id="rId3"/>
+    <sheet name="distances" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="327">
   <si>
     <t>average intron length:</t>
   </si>
@@ -845,6 +847,159 @@
   <si>
     <t>codon</t>
   </si>
+  <si>
+    <t>Anncaliia_algerae</t>
+  </si>
+  <si>
+    <t>Arabidopsis_thaliana</t>
+  </si>
+  <si>
+    <t>Aspergillus_nidulans</t>
+  </si>
+  <si>
+    <t>Batrachochytrium_dendrobatidis</t>
+  </si>
+  <si>
+    <t>Blumeria_graminis</t>
+  </si>
+  <si>
+    <t>Botrytis_cinerea</t>
+  </si>
+  <si>
+    <t>Candida_albicans</t>
+  </si>
+  <si>
+    <t>Candida_tenuis</t>
+  </si>
+  <si>
+    <t>Coccidioides_posadasii</t>
+  </si>
+  <si>
+    <t>Coprinopsis_cinerea</t>
+  </si>
+  <si>
+    <t>Cryptococcus_neoformans</t>
+  </si>
+  <si>
+    <t>Encephalitozoon_cuniculi</t>
+  </si>
+  <si>
+    <t>Fusarium_oxysporum</t>
+  </si>
+  <si>
+    <t>Gloeophyllum_trabeum</t>
+  </si>
+  <si>
+    <t>Grosmannia_clavigera</t>
+  </si>
+  <si>
+    <t>Histoplasma_capsulatum</t>
+  </si>
+  <si>
+    <t>Homo_sapiens</t>
+  </si>
+  <si>
+    <t>Kluyveromyces_lactis</t>
+  </si>
+  <si>
+    <t>Laccaria_bicolor</t>
+  </si>
+  <si>
+    <t>Leptosphaeria_maculans</t>
+  </si>
+  <si>
+    <t>Magnaporthe_oryzae</t>
+  </si>
+  <si>
+    <t>Metarhizium_acridum</t>
+  </si>
+  <si>
+    <t>Microbotryum_violaceum</t>
+  </si>
+  <si>
+    <t>Mucor_circinelloides</t>
+  </si>
+  <si>
+    <t>Nematocida_parisii</t>
+  </si>
+  <si>
+    <t>Neurospora_crassa</t>
+  </si>
+  <si>
+    <t>Phycomyces_blakesleeanus</t>
+  </si>
+  <si>
+    <t>Phytophthora_infestans</t>
+  </si>
+  <si>
+    <t>Pleurotus_ostreatus</t>
+  </si>
+  <si>
+    <t>Podospora_anserina</t>
+  </si>
+  <si>
+    <t>Puccinia_graminis</t>
+  </si>
+  <si>
+    <t>Rhizophagus_irregularis</t>
+  </si>
+  <si>
+    <t>Rhizopus_oryzae</t>
+  </si>
+  <si>
+    <t>Saccharomyces_cerevisiae</t>
+  </si>
+  <si>
+    <t>Schizosaccharomyces_pombe</t>
+  </si>
+  <si>
+    <t>Trichoderma_reesei</t>
+  </si>
+  <si>
+    <t>Tuber_melanosporum</t>
+  </si>
+  <si>
+    <t>Ustilago_maydis</t>
+  </si>
+  <si>
+    <t>Vavraia_culicis</t>
+  </si>
+  <si>
+    <t>Verticillium_dahliae</t>
+  </si>
+  <si>
+    <t>Yarrowia_lipolytica</t>
+  </si>
+  <si>
+    <t>Zymoseptoria_tritici</t>
+  </si>
+  <si>
+    <t>house_keeping</t>
+  </si>
+  <si>
+    <t>polyA</t>
+  </si>
+  <si>
+    <t>spliceosome</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>diff polyA</t>
+  </si>
+  <si>
+    <t>diff spliceosome</t>
+  </si>
+  <si>
+    <t>diff translation</t>
+  </si>
+  <si>
+    <t>orthologs/YMR288W.fa Coccidioides_posadasii</t>
+  </si>
 </sst>
 </file>
 
@@ -853,7 +1008,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,6 +1020,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF669900"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -900,12 +1062,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF669900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1203,11 +1371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB272"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231:A272"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -28375,7 +28543,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -31016,11 +31184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -39540,4 +39708,1481 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2">
+        <v>1.7363900000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.64000500000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.16483800000000001</v>
+      </c>
+      <c r="E2">
+        <v>1.2526200000000001</v>
+      </c>
+      <c r="F2">
+        <f>C2-$B2</f>
+        <v>-1.0963850000000002</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:H17" si="0">D2-$B2</f>
+        <v>-1.5715520000000001</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>-0.48377000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3">
+        <v>1.7995000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.4294799999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.52752699999999997</v>
+      </c>
+      <c r="E3">
+        <v>1.2869900000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F43" si="1">C3-$B3</f>
+        <v>0.62997999999999976</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-1.271973</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>-0.51251000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4">
+        <v>1.32003</v>
+      </c>
+      <c r="C4">
+        <v>1.9616400000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.47306500000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.18241</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.64161000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-0.84696499999999997</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-0.13762000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5">
+        <v>1.2936700000000001</v>
+      </c>
+      <c r="C5">
+        <v>3.02555</v>
+      </c>
+      <c r="D5">
+        <v>0.56931100000000001</v>
+      </c>
+      <c r="E5">
+        <v>1.1997599999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.7318799999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-0.72435900000000009</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-9.391000000000016E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6">
+        <v>1.6565700000000001</v>
+      </c>
+      <c r="C6">
+        <v>3.6899600000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.96380699999999997</v>
+      </c>
+      <c r="E6">
+        <v>1.51468</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.0333899999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.69276300000000013</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-0.14189000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7">
+        <v>1.5170699999999999</v>
+      </c>
+      <c r="C7">
+        <v>3.5398800000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.96266200000000002</v>
+      </c>
+      <c r="E7">
+        <v>1.4720200000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.0228100000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-0.5544079999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-4.5049999999999812E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8">
+        <v>1.4933000000000001</v>
+      </c>
+      <c r="C8">
+        <v>3.5572300000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.25448</v>
+      </c>
+      <c r="E8">
+        <v>1.6277600000000001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.06393</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.23882000000000003</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.13446000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9">
+        <v>1.7105999999999999</v>
+      </c>
+      <c r="C9">
+        <v>3.7735300000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.0328900000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.5339100000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.0629300000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.67770999999999981</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.17668999999999979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10">
+        <v>1.43554</v>
+      </c>
+      <c r="C10">
+        <v>3.4741499999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.96080900000000002</v>
+      </c>
+      <c r="E10">
+        <v>1.4156200000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.0386099999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-0.47473100000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-1.9919999999999938E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11">
+        <v>1.48855</v>
+      </c>
+      <c r="C11">
+        <v>3.5729799999999998</v>
+      </c>
+      <c r="D11">
+        <v>1.0865800000000001</v>
+      </c>
+      <c r="E11">
+        <v>1.4597199999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.0844299999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.40196999999999994</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-2.8830000000000133E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12">
+        <v>1.5376000000000001</v>
+      </c>
+      <c r="C12">
+        <v>3.6611500000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.99931599999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.5160800000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.1235499999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-0.5382840000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-2.1519999999999984E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13">
+        <v>1.5290299999999999</v>
+      </c>
+      <c r="C13">
+        <v>3.5721599999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.94166499999999997</v>
+      </c>
+      <c r="E13">
+        <v>1.49854</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.0431299999999997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-0.58736499999999991</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-3.0489999999999906E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14">
+        <v>1.46238</v>
+      </c>
+      <c r="C14">
+        <v>3.2952599999999999</v>
+      </c>
+      <c r="D14">
+        <v>1.07002</v>
+      </c>
+      <c r="E14">
+        <v>1.3881300000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.8328799999999998</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-0.39236000000000004</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-7.4249999999999927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15">
+        <v>1.7325299999999999</v>
+      </c>
+      <c r="C15">
+        <v>3.9982199999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.55768</v>
+      </c>
+      <c r="E15">
+        <v>1.5793699999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.2656900000000002</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-0.17484999999999995</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-0.15315999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16">
+        <v>1.84439</v>
+      </c>
+      <c r="C16">
+        <v>4.5302600000000002</v>
+      </c>
+      <c r="D16">
+        <v>1.9253199999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.6363300000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.6858700000000004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>8.0929999999999946E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-0.20805999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17">
+        <v>1.8942699999999999</v>
+      </c>
+      <c r="C17">
+        <v>4.5427299999999997</v>
+      </c>
+      <c r="D17">
+        <v>1.9972300000000001</v>
+      </c>
+      <c r="E17">
+        <v>1.62887</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.64846</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.10296000000000016</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-0.26539999999999986</v>
+      </c>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18">
+        <v>1.88903</v>
+      </c>
+      <c r="C18">
+        <v>4.6114899999999999</v>
+      </c>
+      <c r="D18">
+        <v>2.20539</v>
+      </c>
+      <c r="E18">
+        <v>1.59738</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.7224599999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G43" si="2">D18-$B18</f>
+        <v>0.31635999999999997</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H43" si="3">E18-$B18</f>
+        <v>-0.29164999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19">
+        <v>1.8439399999999999</v>
+      </c>
+      <c r="C19">
+        <v>5.0748100000000003</v>
+      </c>
+      <c r="D19">
+        <v>1.8497399999999999</v>
+      </c>
+      <c r="E19">
+        <v>1.5810599999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.2308700000000004</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>5.8000000000000274E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-0.26288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20">
+        <v>1.6335599999999999</v>
+      </c>
+      <c r="C20">
+        <v>3.4682599999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.01684</v>
+      </c>
+      <c r="E20">
+        <v>1.4847300000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1.8347</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>-0.61671999999999993</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-0.1488299999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21">
+        <v>1.9664200000000001</v>
+      </c>
+      <c r="C21">
+        <v>3.8876200000000001</v>
+      </c>
+      <c r="D21">
+        <v>1.2308399999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.6237900000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.9212</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>-0.73558000000000012</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-0.34262999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22">
+        <v>1.9734100000000001</v>
+      </c>
+      <c r="C22">
+        <v>3.9090400000000001</v>
+      </c>
+      <c r="D22">
+        <v>1.17564</v>
+      </c>
+      <c r="E22">
+        <v>1.6087199999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1.93563</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>-0.79777000000000009</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-0.36469000000000018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23">
+        <v>2.06324</v>
+      </c>
+      <c r="C23">
+        <v>3.9572400000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.1901900000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.62737</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.8940000000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>-0.87304999999999988</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-0.43586999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24">
+        <v>1.9877199999999999</v>
+      </c>
+      <c r="C24">
+        <v>3.9833400000000001</v>
+      </c>
+      <c r="D24">
+        <v>1.2797799999999999</v>
+      </c>
+      <c r="E24">
+        <v>1.7137199999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.9956200000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>-0.70794000000000001</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25">
+        <v>2.0350799999999998</v>
+      </c>
+      <c r="C25">
+        <v>3.9266999999999999</v>
+      </c>
+      <c r="D25">
+        <v>1.2260800000000001</v>
+      </c>
+      <c r="E25">
+        <v>1.61697</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.8916200000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>-0.80899999999999972</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>-0.41810999999999976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26">
+        <v>2.0141900000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.8887999999999998</v>
+      </c>
+      <c r="D26">
+        <v>1.1838200000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.6209199999999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.8746099999999997</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>-0.83037000000000005</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-0.39327000000000023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27">
+        <v>2.0374599999999998</v>
+      </c>
+      <c r="C27">
+        <v>3.9168099999999999</v>
+      </c>
+      <c r="D27">
+        <v>1.2328399999999999</v>
+      </c>
+      <c r="E27">
+        <v>1.62216</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.8793500000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>-0.80461999999999989</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-0.41529999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28">
+        <v>2.0202200000000001</v>
+      </c>
+      <c r="C28">
+        <v>3.8986399999999999</v>
+      </c>
+      <c r="D28">
+        <v>1.20164</v>
+      </c>
+      <c r="E28">
+        <v>1.6313500000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.8784199999999998</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>-0.81858000000000009</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>-0.38887000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29">
+        <v>1.7705299999999999</v>
+      </c>
+      <c r="C29">
+        <v>3.7004100000000002</v>
+      </c>
+      <c r="D29">
+        <v>1.0883</v>
+      </c>
+      <c r="E29">
+        <v>1.52338</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.9298800000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>-0.68222999999999989</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>-0.24714999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <v>1.8767499999999999</v>
+      </c>
+      <c r="C30">
+        <v>3.81345</v>
+      </c>
+      <c r="D30">
+        <v>1.15232</v>
+      </c>
+      <c r="E30">
+        <v>1.59436</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1.9367000000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>-0.72442999999999991</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-0.28238999999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31">
+        <v>2.0132300000000001</v>
+      </c>
+      <c r="C31">
+        <v>3.9847100000000002</v>
+      </c>
+      <c r="D31">
+        <v>1.2782899999999999</v>
+      </c>
+      <c r="E31">
+        <v>1.57151</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.9714800000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>-0.73494000000000015</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>-0.44172000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32">
+        <v>2.0180099999999999</v>
+      </c>
+      <c r="C32">
+        <v>4.1361400000000001</v>
+      </c>
+      <c r="D32">
+        <v>1.2464900000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.59236</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2.1181300000000003</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>-0.77151999999999976</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>-0.42564999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33">
+        <v>1.8321000000000001</v>
+      </c>
+      <c r="C33">
+        <v>3.8988399999999999</v>
+      </c>
+      <c r="D33">
+        <v>1.11151</v>
+      </c>
+      <c r="E33">
+        <v>1.55314</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2.0667399999999998</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>-0.72059000000000006</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>-0.2789600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34">
+        <v>1.88954</v>
+      </c>
+      <c r="C34">
+        <v>3.9876399999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.11267</v>
+      </c>
+      <c r="E34">
+        <v>1.5253300000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.0980999999999996</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>-0.77686999999999995</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>-0.36420999999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35">
+        <v>1.8344800000000001</v>
+      </c>
+      <c r="C35">
+        <v>4.0094700000000003</v>
+      </c>
+      <c r="D35">
+        <v>1.1119399999999999</v>
+      </c>
+      <c r="E35">
+        <v>1.5292699999999999</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2.1749900000000002</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>-0.72254000000000018</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>-0.3052100000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36">
+        <v>1.2582199999999999</v>
+      </c>
+      <c r="C36">
+        <v>2.17963</v>
+      </c>
+      <c r="D36">
+        <v>0.59500799999999998</v>
+      </c>
+      <c r="E36">
+        <v>1.2356</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.92141000000000006</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>-0.66321199999999991</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>-2.2619999999999862E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37">
+        <v>1.3058099999999999</v>
+      </c>
+      <c r="C37">
+        <v>2.42334</v>
+      </c>
+      <c r="D37">
+        <v>0.60958800000000002</v>
+      </c>
+      <c r="E37">
+        <v>1.27549</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1.1175300000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>-0.6962219999999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>-3.0319999999999903E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38">
+        <v>1.27684</v>
+      </c>
+      <c r="C38">
+        <v>2.2542300000000002</v>
+      </c>
+      <c r="D38">
+        <v>0.61440099999999997</v>
+      </c>
+      <c r="E38">
+        <v>1.27277</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.9773900000000002</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>-0.662439</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>-4.070000000000018E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B39">
+        <v>1.2937000000000001</v>
+      </c>
+      <c r="C39">
+        <v>2.6590500000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.57599400000000001</v>
+      </c>
+      <c r="E39">
+        <v>1.1779500000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1.3653500000000001</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>-0.71770600000000007</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>-0.11575000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40">
+        <v>2.24376</v>
+      </c>
+      <c r="C40">
+        <v>4.9999799999999999</v>
+      </c>
+      <c r="D40">
+        <v>11.7737</v>
+      </c>
+      <c r="E40">
+        <v>1.9819899999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>2.7562199999999999</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>9.5299399999999999</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>-0.26177000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41">
+        <v>2.7426400000000002</v>
+      </c>
+      <c r="C41">
+        <v>5.9002499999999998</v>
+      </c>
+      <c r="D41">
+        <v>8.1576500000000003</v>
+      </c>
+      <c r="E41">
+        <v>2.2537799999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>3.1576099999999996</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>5.4150100000000005</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>-0.48886000000000029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42">
+        <v>2.3781099999999999</v>
+      </c>
+      <c r="C42">
+        <v>5.5197599999999998</v>
+      </c>
+      <c r="D42">
+        <v>8.1991899999999998</v>
+      </c>
+      <c r="E42">
+        <v>2.2119300000000002</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>3.1416499999999998</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>5.8210800000000003</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>-0.16617999999999977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43">
+        <v>1.9574199999999999</v>
+      </c>
+      <c r="C43">
+        <v>5.0087599999999997</v>
+      </c>
+      <c r="D43">
+        <v>5.9588299999999998</v>
+      </c>
+      <c r="E43">
+        <v>2.3201200000000002</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>3.0513399999999997</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>4.0014099999999999</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0.36270000000000024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/evolution/evolution.xlsx
+++ b/doc/evolution/evolution.xlsx
@@ -10,15 +10,19 @@
     <sheet name="splicing" sheetId="2" r:id="rId1"/>
     <sheet name="polyA" sheetId="4" r:id="rId2"/>
     <sheet name="translation" sheetId="5" r:id="rId3"/>
-    <sheet name="distances" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="transcription" sheetId="8" r:id="rId4"/>
+    <sheet name="distances" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">transcription!$A$1:$E$43</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="334">
   <si>
     <t>average intron length:</t>
   </si>
@@ -1009,6 +1013,18 @@
   <si>
     <t>diff transcription</t>
   </si>
+  <si>
+    <t xml:space="preserve">BRE </t>
+  </si>
+  <si>
+    <t>TATABOX</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>DPE</t>
+  </si>
 </sst>
 </file>
 
@@ -7310,11 +7326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128849408"/>
-        <c:axId val="128850944"/>
+        <c:axId val="86238336"/>
+        <c:axId val="86239872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128849408"/>
+        <c:axId val="86238336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7324,12 +7340,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128850944"/>
+        <c:crossAx val="86239872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128850944"/>
+        <c:axId val="86239872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,7 +7356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128849408"/>
+        <c:crossAx val="86238336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -80273,9 +80289,755 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>4.5859700000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.58785399999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.99989600000000001</v>
+      </c>
+      <c r="E2">
+        <v>7.1209700000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>0.35063299999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.110357</v>
+      </c>
+      <c r="D3">
+        <v>0.98592299999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.213365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4">
+        <v>0.32387700000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.130242</v>
+      </c>
+      <c r="D4">
+        <v>0.96704400000000001</v>
+      </c>
+      <c r="E4">
+        <v>8.2229399999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>4.0878999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.30640800000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.99742200000000003</v>
+      </c>
+      <c r="E5">
+        <v>9.6120800000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>0.167236</v>
+      </c>
+      <c r="C6">
+        <v>0.20527899999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.99177099999999996</v>
+      </c>
+      <c r="E6">
+        <v>8.5770399999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>0.60151200000000005</v>
+      </c>
+      <c r="C7">
+        <v>3.32847E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.98156699999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.26468599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>0.35532399999999997</v>
+      </c>
+      <c r="C8">
+        <v>5.4924800000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.98235700000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.420068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>0.29162700000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.20094799999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.99652399999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.17567099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>0.46650700000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.15090200000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.98868199999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.24227099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>0.398752</v>
+      </c>
+      <c r="C11">
+        <v>0.17638100000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.99821700000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.202852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>0.36714400000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.13177</v>
+      </c>
+      <c r="D12">
+        <v>0.997228</v>
+      </c>
+      <c r="E12">
+        <v>0.20143800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>0.25948599999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.16136300000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.98856500000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.17574400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>3.6632900000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.50253300000000001</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5.6508200000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>0.22206799999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.31561099999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.99938400000000005</v>
+      </c>
+      <c r="E15">
+        <v>0.17876400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16">
+        <v>0.120924</v>
+      </c>
+      <c r="C16">
+        <v>0.483545</v>
+      </c>
+      <c r="D16">
+        <v>0.99954699999999996</v>
+      </c>
+      <c r="E16">
+        <v>8.4390099999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>5.1155399999999997E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.46158399999999999</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>7.3869199999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>0.16663800000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.24767400000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.99915399999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.15834899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>3.4706399999999998E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.53637199999999996</v>
+      </c>
+      <c r="D19">
+        <v>0.99964900000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.128834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20">
+        <v>0.22347</v>
+      </c>
+      <c r="C20">
+        <v>0.14341100000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.99919800000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.108126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <v>0.37629699999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.15693599999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.997861</v>
+      </c>
+      <c r="E21">
+        <v>0.15107300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22">
+        <v>0.36565700000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.110431</v>
+      </c>
+      <c r="D22">
+        <v>0.99857200000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.16059999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>0.385023</v>
+      </c>
+      <c r="C23">
+        <v>9.4164499999999998E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.99816400000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.16129399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
+        <v>0.45115499999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.112488</v>
+      </c>
+      <c r="D24">
+        <v>0.98917200000000005</v>
+      </c>
+      <c r="E24">
+        <v>0.23219400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25">
+        <v>0.519092</v>
+      </c>
+      <c r="C25">
+        <v>6.1360199999999997E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.98727200000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.216945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26">
+        <v>0.25693700000000003</v>
+      </c>
+      <c r="C26">
+        <v>0.18357000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.99745499999999998</v>
+      </c>
+      <c r="E26">
+        <v>0.13782900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>0.420427</v>
+      </c>
+      <c r="C27">
+        <v>0.16239799999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.99786600000000003</v>
+      </c>
+      <c r="E27">
+        <v>0.19329299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>0.42283199999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.15601400000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.99568299999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.16656699999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <v>0.13872200000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.25103700000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.99966100000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.107998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30">
+        <v>0.19415399999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.18008399999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.99718600000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.14475499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>0.38575700000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.13433300000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.99165899999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.19769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32">
+        <v>0.42723499999999998</v>
+      </c>
+      <c r="C32">
+        <v>5.0487799999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.99627900000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.26028400000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>0.32450400000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.19367699999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.99924000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.143454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>0.23947299999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.297128</v>
+      </c>
+      <c r="D34">
+        <v>0.98477700000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.10159799999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>0.310172</v>
+      </c>
+      <c r="C35">
+        <v>0.166797</v>
+      </c>
+      <c r="D35">
+        <v>0.99568800000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.13347700000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>4.8435899999999997E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.64563599999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.99152200000000001</v>
+      </c>
+      <c r="E36">
+        <v>6.2697199999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37">
+        <v>4.2545800000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.58393899999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.99804000000000004</v>
+      </c>
+      <c r="E37">
+        <v>7.0909700000000006E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38">
+        <v>0.114326</v>
+      </c>
+      <c r="C38">
+        <v>0.43994299999999997</v>
+      </c>
+      <c r="D38">
+        <v>0.99914599999999998</v>
+      </c>
+      <c r="E38">
+        <v>8.1024700000000005E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39">
+        <v>2.20752E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.59357000000000004</v>
+      </c>
+      <c r="D39">
+        <v>0.93108199999999997</v>
+      </c>
+      <c r="E39">
+        <v>3.6035699999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>7.9238100000000006E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.99504800000000004</v>
+      </c>
+      <c r="E40">
+        <v>3.9619000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41">
+        <v>7.64595E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.34877599999999997</v>
+      </c>
+      <c r="D41">
+        <v>0.99171399999999998</v>
+      </c>
+      <c r="E41">
+        <v>0.10131800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>7.0336399999999999E-3</v>
+      </c>
+      <c r="C42">
+        <v>0.68654400000000004</v>
+      </c>
+      <c r="D42">
+        <v>0.96483200000000002</v>
+      </c>
+      <c r="E42">
+        <v>1.3761499999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43">
+        <v>0.170129</v>
+      </c>
+      <c r="C43">
+        <v>0.15232399999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.99208700000000005</v>
+      </c>
+      <c r="E43">
+        <v>0.122156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -81839,7 +82601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
